--- a/Project Plan.xlsx
+++ b/Project Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roche\Desktop\PPIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021FCB38-D53A-40FA-9B1D-6B4A59FAB812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4252B071-B34C-4B00-ADAC-997CFDC5FBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A021F9C5-CAF0-464F-A2AC-28F4F47567D4}"/>
   </bookViews>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1195,7 +1195,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="20">
-        <v>44323</v>
+        <v>44234</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>28</v>
